--- a/documentação/Product Backlog Sprint e Requisitos.xlsx
+++ b/documentação/Product Backlog Sprint e Requisitos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\paiotnela\documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\paiotnela\documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1007C042-B0BD-4D88-919B-59057C6F38D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16320" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -22,12 +23,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -923,7 +918,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1179,6 +1174,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1199,15 +1203,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1530,17 +1525,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="135.5703125" style="23" bestFit="1" customWidth="1"/>
   </cols>
@@ -1579,7 +1574,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>201</v>
       </c>
@@ -1645,7 +1640,7 @@
       <c r="C8" s="6">
         <v>5</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="31" t="s">
         <v>294</v>
       </c>
     </row>
@@ -1659,7 +1654,7 @@
       <c r="C9" s="6">
         <v>5</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="31" t="s">
         <v>294</v>
       </c>
     </row>
@@ -1673,7 +1668,7 @@
       <c r="C10" s="6">
         <v>5</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="31" t="s">
         <v>294</v>
       </c>
     </row>
@@ -1681,13 +1676,13 @@
       <c r="A11" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="30" t="s">
         <v>292</v>
       </c>
       <c r="C11" s="6">
         <v>5</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="31" t="s">
         <v>293</v>
       </c>
     </row>
@@ -1713,17 +1708,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" style="19" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="28" customWidth="1"/>
@@ -1748,13 +1743,13 @@
       <c r="D1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
       <c r="J1" s="5" t="s">
         <v>237</v>
       </c>
@@ -1804,10 +1799,10 @@
         <v>246</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="J3" s="27" t="s">
         <v>249</v>
@@ -1888,10 +1883,10 @@
       <c r="D6" s="6">
         <v>8</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="29" t="s">
         <v>281</v>
       </c>
       <c r="G6" s="27" t="s">
@@ -1920,13 +1915,13 @@
       <c r="D7" s="6">
         <v>4</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="29" t="s">
         <v>283</v>
       </c>
       <c r="H7" s="27" t="s">
@@ -1952,19 +1947,19 @@
       <c r="D8" s="6">
         <v>4</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="29" t="s">
         <v>279</v>
       </c>
       <c r="J8" s="27"/>
@@ -1982,19 +1977,19 @@
       <c r="D9" s="6">
         <v>4</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="29" t="s">
         <v>280</v>
       </c>
       <c r="H9" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="29" t="s">
         <v>279</v>
       </c>
       <c r="J9" s="27"/>
@@ -2012,19 +2007,19 @@
       <c r="D10" s="6">
         <v>4</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="29" t="s">
         <v>280</v>
       </c>
       <c r="H10" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="29" t="s">
         <v>279</v>
       </c>
       <c r="J10" s="27"/>
@@ -2033,7 +2028,7 @@
       <c r="A11" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="30" t="s">
         <v>290</v>
       </c>
       <c r="C11" s="6">
@@ -2042,15 +2037,15 @@
       <c r="D11" s="6">
         <v>1</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="29" t="s">
         <v>291</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
-      <c r="I11" s="36"/>
+      <c r="I11" s="29"/>
       <c r="J11" s="27"/>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2064,19 +2059,19 @@
         <v>5</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="I12" s="36" t="s">
+      <c r="I12" s="29" t="s">
         <v>289</v>
       </c>
       <c r="J12" s="27"/>
@@ -2091,7 +2086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2129,7 +2124,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>200</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2149,7 +2144,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
@@ -2167,7 +2162,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2185,7 +2180,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
@@ -2203,7 +2198,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
@@ -2221,7 +2216,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
@@ -2239,7 +2234,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
@@ -2257,7 +2252,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="33" t="s">
         <v>201</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -2277,7 +2272,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
@@ -2315,7 +2310,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="33" t="s">
         <v>204</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -2335,7 +2330,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
@@ -2353,7 +2348,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="33" t="s">
         <v>203</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -2373,7 +2368,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
@@ -2391,7 +2386,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
@@ -2409,7 +2404,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="6" t="s">
         <v>19</v>
       </c>
@@ -2427,7 +2422,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="33" t="s">
         <v>208</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -2447,7 +2442,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="6" t="s">
         <v>42</v>
       </c>
@@ -2465,7 +2460,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="6" t="s">
         <v>43</v>
       </c>
@@ -2483,7 +2478,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="6" t="s">
         <v>44</v>
       </c>
@@ -2492,7 +2487,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="33" t="s">
         <v>209</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -2512,7 +2507,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="6" t="s">
         <v>220</v>
       </c>
@@ -2530,7 +2525,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="6" t="s">
         <v>221</v>
       </c>
@@ -2548,7 +2543,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="6" t="s">
         <v>222</v>
       </c>
@@ -2557,7 +2552,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="6" t="s">
         <v>223</v>
       </c>
@@ -2566,7 +2561,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="33" t="s">
         <v>210</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -2586,7 +2581,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="6" t="s">
         <v>225</v>
       </c>
@@ -2604,7 +2599,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="6" t="s">
         <v>226</v>
       </c>
@@ -2622,7 +2617,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="6" t="s">
         <v>227</v>
       </c>
@@ -2631,7 +2626,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="6" t="s">
         <v>228</v>
       </c>
@@ -2649,7 +2644,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="33" t="s">
         <v>212</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -2669,7 +2664,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="6" t="s">
         <v>230</v>
       </c>
@@ -2687,7 +2682,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="6" t="s">
         <v>231</v>
       </c>
@@ -2705,7 +2700,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="6" t="s">
         <v>232</v>
       </c>
@@ -2723,7 +2718,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
+      <c r="A36" s="35"/>
       <c r="B36" s="6" t="s">
         <v>233</v>
       </c>
@@ -2741,7 +2736,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="33" t="s">
         <v>213</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -2761,7 +2756,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="6" t="s">
         <v>21</v>
       </c>
@@ -2779,7 +2774,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="6" t="s">
         <v>22</v>
       </c>
@@ -2797,7 +2792,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
+      <c r="A40" s="34"/>
       <c r="B40" s="6" t="s">
         <v>27</v>
       </c>
@@ -2815,7 +2810,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="6" t="s">
         <v>28</v>
       </c>
@@ -2833,7 +2828,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="6" t="s">
         <v>37</v>
       </c>
@@ -2863,32 +2858,32 @@
     <mergeCell ref="A27:A31"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" location="'Sprint Backlog'!B7" display="RF002"/>
-    <hyperlink ref="B4" location="'Sprint Backlog'!B11" display="RF003"/>
-    <hyperlink ref="B5" location="'Sprint Backlog'!B15" display="RF004"/>
-    <hyperlink ref="B6" location="'Sprint Backlog'!B19" display="RF005"/>
-    <hyperlink ref="B7" location="'Sprint Backlog'!B22" display="RF006"/>
-    <hyperlink ref="B3" location="'Sprint Backlog'!B54" display="RF012"/>
-    <hyperlink ref="B8" location="'Sprint Backlog'!B7" display="RF002"/>
-    <hyperlink ref="B14" location="'Sprint Backlog'!B7" display="RF002"/>
-    <hyperlink ref="B10" location="'Sprint Backlog'!B11" display="RF003"/>
-    <hyperlink ref="B16" location="'Sprint Backlog'!B11" display="RF003"/>
-    <hyperlink ref="B11" location="'Sprint Backlog'!B15" display="RF004"/>
-    <hyperlink ref="B17" location="'Sprint Backlog'!B22" display="RF006"/>
-    <hyperlink ref="B12" location="'Sprint Backlog'!B19" display="RF005"/>
-    <hyperlink ref="B13" location="'Sprint Backlog'!B22" display="RF006"/>
-    <hyperlink ref="B9" location="'Sprint Backlog'!B54" display="RF012"/>
-    <hyperlink ref="B15" location="'Sprint Backlog'!B54" display="RF012"/>
+    <hyperlink ref="B2" location="'Sprint Backlog'!B7" display="RF002" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B4" location="'Sprint Backlog'!B11" display="RF003" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B5" location="'Sprint Backlog'!B15" display="RF004" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B6" location="'Sprint Backlog'!B19" display="RF005" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B7" location="'Sprint Backlog'!B22" display="RF006" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="B3" location="'Sprint Backlog'!B54" display="RF012" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="B8" location="'Sprint Backlog'!B7" display="RF002" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="B14" location="'Sprint Backlog'!B7" display="RF002" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="B10" location="'Sprint Backlog'!B11" display="RF003" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="B16" location="'Sprint Backlog'!B11" display="RF003" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="B11" location="'Sprint Backlog'!B15" display="RF004" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="B17" location="'Sprint Backlog'!B22" display="RF006" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="B12" location="'Sprint Backlog'!B19" display="RF005" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="B13" location="'Sprint Backlog'!B22" display="RF006" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="B9" location="'Sprint Backlog'!B54" display="RF012" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="B15" location="'Sprint Backlog'!B54" display="RF012" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:D157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -2921,7 +2916,7 @@
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -2933,7 +2928,7 @@
       <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="13" t="s">
         <v>251</v>
       </c>
@@ -2943,7 +2938,7 @@
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="13" t="s">
         <v>252</v>
       </c>
@@ -2953,7 +2948,7 @@
       <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -2965,7 +2960,7 @@
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="13" t="s">
         <v>254</v>
       </c>
@@ -2975,7 +2970,7 @@
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="13" t="s">
         <v>255</v>
       </c>
@@ -2985,7 +2980,7 @@
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="13" t="s">
         <v>256</v>
       </c>
@@ -2995,7 +2990,7 @@
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -3007,7 +3002,7 @@
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="13" t="s">
         <v>254</v>
       </c>
@@ -3017,7 +3012,7 @@
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="13" t="s">
         <v>255</v>
       </c>
@@ -3027,7 +3022,7 @@
       <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="13" t="s">
         <v>256</v>
       </c>
@@ -3037,7 +3032,7 @@
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="36" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -3049,7 +3044,7 @@
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="13" t="s">
         <v>254</v>
       </c>
@@ -3059,7 +3054,7 @@
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="13" t="s">
         <v>255</v>
       </c>
@@ -3069,7 +3064,7 @@
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="13" t="s">
         <v>256</v>
       </c>
@@ -3079,7 +3074,7 @@
       <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -3091,7 +3086,7 @@
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="13" t="s">
         <v>254</v>
       </c>
@@ -3101,7 +3096,7 @@
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="13" t="s">
         <v>255</v>
       </c>
@@ -3111,7 +3106,7 @@
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="13" t="s">
         <v>256</v>
       </c>
@@ -3121,7 +3116,7 @@
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="36" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -3133,7 +3128,7 @@
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="13" t="s">
         <v>254</v>
       </c>
@@ -3143,7 +3138,7 @@
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="13" t="s">
         <v>255</v>
       </c>
@@ -3153,7 +3148,7 @@
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="13" t="s">
         <v>256</v>
       </c>
@@ -3163,7 +3158,7 @@
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="36" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="13" t="s">
@@ -3175,7 +3170,7 @@
       <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="13" t="s">
         <v>258</v>
       </c>
@@ -3185,7 +3180,7 @@
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="13" t="s">
         <v>259</v>
       </c>
@@ -3195,7 +3190,7 @@
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="36" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="13" t="s">
@@ -3207,7 +3202,7 @@
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="13" t="s">
         <v>260</v>
       </c>
@@ -3217,7 +3212,7 @@
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="13" t="s">
         <v>261</v>
       </c>
@@ -3227,7 +3222,7 @@
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="36" t="s">
         <v>11</v>
       </c>
       <c r="B33" s="13" t="s">
@@ -3239,7 +3234,7 @@
       <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="13" t="s">
         <v>260</v>
       </c>
@@ -3249,7 +3244,7 @@
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="13" t="s">
         <v>263</v>
       </c>
@@ -3259,7 +3254,7 @@
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="36" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="13" t="s">
@@ -3271,7 +3266,7 @@
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
+      <c r="A37" s="37"/>
       <c r="B37" s="13" t="s">
         <v>265</v>
       </c>
@@ -3281,7 +3276,7 @@
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
+      <c r="A38" s="38"/>
       <c r="B38" s="13" t="s">
         <v>266</v>
       </c>
@@ -3291,7 +3286,7 @@
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="36" t="s">
         <v>13</v>
       </c>
       <c r="B39" s="13" t="s">
@@ -3303,7 +3298,7 @@
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
+      <c r="A40" s="38"/>
       <c r="B40" s="13" t="s">
         <v>268</v>
       </c>
@@ -3313,7 +3308,7 @@
       <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="36" t="s">
         <v>14</v>
       </c>
       <c r="B41" s="13" t="s">
@@ -3325,7 +3320,7 @@
       <c r="D41" s="8"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="13" t="s">
         <v>270</v>
       </c>
@@ -3335,7 +3330,7 @@
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
+      <c r="A43" s="37"/>
       <c r="B43" s="13" t="s">
         <v>271</v>
       </c>
@@ -3345,7 +3340,7 @@
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="35"/>
+      <c r="A44" s="38"/>
       <c r="B44" s="13" t="s">
         <v>272</v>
       </c>
@@ -3355,7 +3350,7 @@
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="36" t="s">
         <v>15</v>
       </c>
       <c r="B45" s="13" t="s">
@@ -3367,7 +3362,7 @@
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
+      <c r="A46" s="37"/>
       <c r="B46" s="13" t="s">
         <v>274</v>
       </c>
@@ -3377,7 +3372,7 @@
       <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
+      <c r="A47" s="38"/>
       <c r="B47" s="13" t="s">
         <v>275</v>
       </c>
@@ -3387,7 +3382,7 @@
       <c r="D47" s="8"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="36" t="s">
         <v>17</v>
       </c>
       <c r="B48" s="13" t="s">
@@ -3399,7 +3394,7 @@
       <c r="D48" s="8"/>
     </row>
     <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
+      <c r="A49" s="37"/>
       <c r="B49" s="13" t="s">
         <v>277</v>
       </c>
@@ -3409,7 +3404,7 @@
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
+      <c r="A50" s="38"/>
       <c r="B50" s="13" t="s">
         <v>278</v>
       </c>
@@ -3419,7 +3414,7 @@
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="36" t="s">
         <v>18</v>
       </c>
       <c r="B51" s="13" t="s">
@@ -3431,7 +3426,7 @@
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
+      <c r="A52" s="37"/>
       <c r="B52" s="13" t="s">
         <v>83</v>
       </c>
@@ -3441,7 +3436,7 @@
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="35"/>
+      <c r="A53" s="38"/>
       <c r="B53" s="13" t="s">
         <v>84</v>
       </c>
@@ -3451,7 +3446,7 @@
       <c r="D53" s="8"/>
     </row>
     <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="33" t="s">
+      <c r="A54" s="36" t="s">
         <v>19</v>
       </c>
       <c r="B54" s="13" t="s">
@@ -3463,7 +3458,7 @@
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="34"/>
+      <c r="A55" s="37"/>
       <c r="B55" s="13" t="s">
         <v>86</v>
       </c>
@@ -3473,7 +3468,7 @@
       <c r="D55" s="8"/>
     </row>
     <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
+      <c r="A56" s="38"/>
       <c r="B56" s="13" t="s">
         <v>87</v>
       </c>
@@ -3483,7 +3478,7 @@
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="33" t="s">
+      <c r="A57" s="36" t="s">
         <v>20</v>
       </c>
       <c r="B57" s="13" t="s">
@@ -3495,7 +3490,7 @@
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="34"/>
+      <c r="A58" s="37"/>
       <c r="B58" s="13" t="s">
         <v>89</v>
       </c>
@@ -3505,7 +3500,7 @@
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="35"/>
+      <c r="A59" s="38"/>
       <c r="B59" s="13" t="s">
         <v>90</v>
       </c>
@@ -3515,7 +3510,7 @@
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="33" t="s">
+      <c r="A60" s="36" t="s">
         <v>21</v>
       </c>
       <c r="B60" s="13" t="s">
@@ -3527,7 +3522,7 @@
       <c r="D60" s="8"/>
     </row>
     <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="34"/>
+      <c r="A61" s="37"/>
       <c r="B61" s="13" t="s">
         <v>92</v>
       </c>
@@ -3537,7 +3532,7 @@
       <c r="D61" s="8"/>
     </row>
     <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="35"/>
+      <c r="A62" s="38"/>
       <c r="B62" s="13" t="s">
         <v>93</v>
       </c>
@@ -3547,7 +3542,7 @@
       <c r="D62" s="8"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="33" t="s">
+      <c r="A63" s="36" t="s">
         <v>22</v>
       </c>
       <c r="B63" s="13" t="s">
@@ -3559,7 +3554,7 @@
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="34"/>
+      <c r="A64" s="37"/>
       <c r="B64" s="13" t="s">
         <v>95</v>
       </c>
@@ -3569,7 +3564,7 @@
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="35"/>
+      <c r="A65" s="38"/>
       <c r="B65" s="13" t="s">
         <v>96</v>
       </c>
@@ -3579,7 +3574,7 @@
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="33" t="s">
+      <c r="A66" s="36" t="s">
         <v>27</v>
       </c>
       <c r="B66" s="13" t="s">
@@ -3591,7 +3586,7 @@
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="34"/>
+      <c r="A67" s="37"/>
       <c r="B67" s="13" t="s">
         <v>98</v>
       </c>
@@ -3601,7 +3596,7 @@
       <c r="D67" s="8"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="35"/>
+      <c r="A68" s="38"/>
       <c r="B68" s="13" t="s">
         <v>99</v>
       </c>
@@ -3611,7 +3606,7 @@
       <c r="D68" s="8"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="33" t="s">
+      <c r="A69" s="36" t="s">
         <v>28</v>
       </c>
       <c r="B69" s="13" t="s">
@@ -3623,7 +3618,7 @@
       <c r="D69" s="8"/>
     </row>
     <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="34"/>
+      <c r="A70" s="37"/>
       <c r="B70" s="13" t="s">
         <v>101</v>
       </c>
@@ -3633,7 +3628,7 @@
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="35"/>
+      <c r="A71" s="38"/>
       <c r="B71" s="13" t="s">
         <v>102</v>
       </c>
@@ -3643,7 +3638,7 @@
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="33" t="s">
+      <c r="A72" s="36" t="s">
         <v>37</v>
       </c>
       <c r="B72" s="13" t="s">
@@ -3655,7 +3650,7 @@
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="34"/>
+      <c r="A73" s="37"/>
       <c r="B73" s="13" t="s">
         <v>104</v>
       </c>
@@ -3665,7 +3660,7 @@
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="35"/>
+      <c r="A74" s="38"/>
       <c r="B74" s="13" t="s">
         <v>105</v>
       </c>
@@ -3681,7 +3676,7 @@
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="33" t="s">
+      <c r="A76" s="36" t="s">
         <v>41</v>
       </c>
       <c r="B76" s="13" t="s">
@@ -3693,7 +3688,7 @@
       <c r="D76" s="8"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="34"/>
+      <c r="A77" s="37"/>
       <c r="B77" s="13" t="s">
         <v>108</v>
       </c>
@@ -3703,7 +3698,7 @@
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="35"/>
+      <c r="A78" s="38"/>
       <c r="B78" s="13" t="s">
         <v>107</v>
       </c>
@@ -3713,7 +3708,7 @@
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A79" s="33" t="s">
+      <c r="A79" s="36" t="s">
         <v>42</v>
       </c>
       <c r="B79" s="13" t="s">
@@ -3727,7 +3722,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A80" s="34"/>
+      <c r="A80" s="37"/>
       <c r="B80" s="13" t="s">
         <v>110</v>
       </c>
@@ -3739,7 +3734,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="35"/>
+      <c r="A81" s="38"/>
       <c r="B81" s="13" t="s">
         <v>111</v>
       </c>
@@ -3749,7 +3744,7 @@
       <c r="D81" s="8"/>
     </row>
     <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="33" t="s">
+      <c r="A82" s="36" t="s">
         <v>43</v>
       </c>
       <c r="B82" s="13" t="s">
@@ -3761,7 +3756,7 @@
       <c r="D82" s="8"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="34"/>
+      <c r="A83" s="37"/>
       <c r="B83" s="13" t="s">
         <v>113</v>
       </c>
@@ -3771,7 +3766,7 @@
       <c r="D83" s="8"/>
     </row>
     <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="35"/>
+      <c r="A84" s="38"/>
       <c r="B84" s="13" t="s">
         <v>114</v>
       </c>
@@ -3781,7 +3776,7 @@
       <c r="D84" s="8"/>
     </row>
     <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="33" t="s">
+      <c r="A85" s="36" t="s">
         <v>44</v>
       </c>
       <c r="B85" s="13" t="s">
@@ -3793,7 +3788,7 @@
       <c r="D85" s="8"/>
     </row>
     <row r="86" spans="1:4" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="34"/>
+      <c r="A86" s="37"/>
       <c r="B86" s="13" t="s">
         <v>116</v>
       </c>
@@ -3803,7 +3798,7 @@
       <c r="D86" s="8"/>
     </row>
     <row r="87" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="35"/>
+      <c r="A87" s="38"/>
       <c r="B87" s="13" t="s">
         <v>117</v>
       </c>
@@ -3813,7 +3808,7 @@
       <c r="D87" s="8"/>
     </row>
     <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="33" t="s">
+      <c r="A88" s="36" t="s">
         <v>45</v>
       </c>
       <c r="B88" s="13" t="s">
@@ -3825,7 +3820,7 @@
       <c r="D88" s="8"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="35"/>
+      <c r="A89" s="38"/>
       <c r="B89" s="13" t="s">
         <v>119</v>
       </c>
@@ -3841,7 +3836,7 @@
       <c r="D90" s="2"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="33" t="s">
+      <c r="A91" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B91" s="13" t="s">
@@ -3853,7 +3848,7 @@
       <c r="D91" s="8"/>
     </row>
     <row r="92" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="34"/>
+      <c r="A92" s="37"/>
       <c r="B92" s="13" t="s">
         <v>121</v>
       </c>
@@ -3863,7 +3858,7 @@
       <c r="D92" s="8"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="34"/>
+      <c r="A93" s="37"/>
       <c r="B93" s="13" t="s">
         <v>122</v>
       </c>
@@ -3873,7 +3868,7 @@
       <c r="D93" s="8"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="35"/>
+      <c r="A94" s="38"/>
       <c r="B94" s="13" t="s">
         <v>123</v>
       </c>
@@ -3883,7 +3878,7 @@
       <c r="D94" s="8"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="33" t="s">
+      <c r="A95" s="36" t="s">
         <v>41</v>
       </c>
       <c r="B95" s="13" t="s">
@@ -3895,7 +3890,7 @@
       <c r="D95" s="8"/>
     </row>
     <row r="96" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="34"/>
+      <c r="A96" s="37"/>
       <c r="B96" s="13" t="s">
         <v>125</v>
       </c>
@@ -3905,7 +3900,7 @@
       <c r="D96" s="8"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="35"/>
+      <c r="A97" s="38"/>
       <c r="B97" s="13" t="s">
         <v>126</v>
       </c>
@@ -3915,7 +3910,7 @@
       <c r="D97" s="8"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="33" t="s">
+      <c r="A98" s="36" t="s">
         <v>42</v>
       </c>
       <c r="B98" s="13" t="s">
@@ -3927,7 +3922,7 @@
       <c r="D98" s="8"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="34"/>
+      <c r="A99" s="37"/>
       <c r="B99" s="13" t="s">
         <v>128</v>
       </c>
@@ -3937,7 +3932,7 @@
       <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="34"/>
+      <c r="A100" s="37"/>
       <c r="B100" s="13" t="s">
         <v>129</v>
       </c>
@@ -3947,7 +3942,7 @@
       <c r="D100" s="8"/>
     </row>
     <row r="101" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="35"/>
+      <c r="A101" s="38"/>
       <c r="B101" s="13" t="s">
         <v>130</v>
       </c>
@@ -3957,7 +3952,7 @@
       <c r="D101" s="8"/>
     </row>
     <row r="102" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="33" t="s">
+      <c r="A102" s="36" t="s">
         <v>43</v>
       </c>
       <c r="B102" s="13" t="s">
@@ -3969,7 +3964,7 @@
       <c r="D102" s="8"/>
     </row>
     <row r="103" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="34"/>
+      <c r="A103" s="37"/>
       <c r="B103" s="13" t="s">
         <v>132</v>
       </c>
@@ -3979,7 +3974,7 @@
       <c r="D103" s="8"/>
     </row>
     <row r="104" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="35"/>
+      <c r="A104" s="38"/>
       <c r="B104" s="13" t="s">
         <v>133</v>
       </c>
@@ -3989,7 +3984,7 @@
       <c r="D104" s="8"/>
     </row>
     <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="33" t="s">
+      <c r="A105" s="36" t="s">
         <v>44</v>
       </c>
       <c r="B105" s="13" t="s">
@@ -4001,7 +3996,7 @@
       <c r="D105" s="8"/>
     </row>
     <row r="106" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="34"/>
+      <c r="A106" s="37"/>
       <c r="B106" s="13" t="s">
         <v>135</v>
       </c>
@@ -4011,7 +4006,7 @@
       <c r="D106" s="8"/>
     </row>
     <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="35"/>
+      <c r="A107" s="38"/>
       <c r="B107" s="13" t="s">
         <v>117</v>
       </c>
@@ -4021,7 +4016,7 @@
       <c r="D107" s="8"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="33" t="s">
+      <c r="A108" s="36" t="s">
         <v>45</v>
       </c>
       <c r="B108" s="13" t="s">
@@ -4033,7 +4028,7 @@
       <c r="D108" s="8"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="34"/>
+      <c r="A109" s="37"/>
       <c r="B109" s="13" t="s">
         <v>128</v>
       </c>
@@ -4043,7 +4038,7 @@
       <c r="D109" s="8"/>
     </row>
     <row r="110" spans="1:4" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="35"/>
+      <c r="A110" s="38"/>
       <c r="B110" s="13" t="s">
         <v>129</v>
       </c>
@@ -4053,7 +4048,7 @@
       <c r="D110" s="8"/>
     </row>
     <row r="111" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="33" t="s">
+      <c r="A111" s="36" t="s">
         <v>60</v>
       </c>
       <c r="B111" s="13" t="s">
@@ -4065,7 +4060,7 @@
       <c r="D111" s="8"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="34"/>
+      <c r="A112" s="37"/>
       <c r="B112" s="13" t="s">
         <v>137</v>
       </c>
@@ -4075,7 +4070,7 @@
       <c r="D112" s="8"/>
     </row>
     <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="35"/>
+      <c r="A113" s="38"/>
       <c r="B113" s="13" t="s">
         <v>138</v>
       </c>
@@ -4091,7 +4086,7 @@
       <c r="D114" s="2"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="33" t="s">
+      <c r="A115" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B115" s="13" t="s">
@@ -4103,7 +4098,7 @@
       <c r="D115" s="8"/>
     </row>
     <row r="116" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="34"/>
+      <c r="A116" s="37"/>
       <c r="B116" s="13" t="s">
         <v>140</v>
       </c>
@@ -4113,7 +4108,7 @@
       <c r="D116" s="8"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="35"/>
+      <c r="A117" s="38"/>
       <c r="B117" s="13" t="s">
         <v>141</v>
       </c>
@@ -4123,7 +4118,7 @@
       <c r="D117" s="8"/>
     </row>
     <row r="118" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="33" t="s">
+      <c r="A118" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B118" s="13" t="s">
@@ -4135,7 +4130,7 @@
       <c r="D118" s="8"/>
     </row>
     <row r="119" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="34"/>
+      <c r="A119" s="37"/>
       <c r="B119" s="13" t="s">
         <v>150</v>
       </c>
@@ -4145,7 +4140,7 @@
       <c r="D119" s="8"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="35"/>
+      <c r="A120" s="38"/>
       <c r="B120" s="13" t="s">
         <v>149</v>
       </c>
@@ -4155,7 +4150,7 @@
       <c r="D120" s="8"/>
     </row>
     <row r="121" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="33" t="s">
+      <c r="A121" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B121" s="13" t="s">
@@ -4167,7 +4162,7 @@
       <c r="D121" s="8"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="34"/>
+      <c r="A122" s="37"/>
       <c r="B122" s="13" t="s">
         <v>143</v>
       </c>
@@ -4177,7 +4172,7 @@
       <c r="D122" s="8"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="35"/>
+      <c r="A123" s="38"/>
       <c r="B123" s="13" t="s">
         <v>144</v>
       </c>
@@ -4187,7 +4182,7 @@
       <c r="D123" s="8"/>
     </row>
     <row r="124" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A124" s="33" t="s">
+      <c r="A124" s="36" t="s">
         <v>6</v>
       </c>
       <c r="B124" s="13" t="s">
@@ -4201,7 +4196,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A125" s="34"/>
+      <c r="A125" s="37"/>
       <c r="B125" s="13" t="s">
         <v>146</v>
       </c>
@@ -4213,7 +4208,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A126" s="35"/>
+      <c r="A126" s="38"/>
       <c r="B126" s="13" t="s">
         <v>147</v>
       </c>
@@ -4225,7 +4220,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="33" t="s">
+      <c r="A127" s="36" t="s">
         <v>41</v>
       </c>
       <c r="B127" s="13" t="s">
@@ -4237,7 +4232,7 @@
       <c r="D127" s="8"/>
     </row>
     <row r="128" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="34"/>
+      <c r="A128" s="37"/>
       <c r="B128" s="13" t="s">
         <v>152</v>
       </c>
@@ -4247,7 +4242,7 @@
       <c r="D128" s="8"/>
     </row>
     <row r="129" spans="1:4" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="35"/>
+      <c r="A129" s="38"/>
       <c r="B129" s="13" t="s">
         <v>153</v>
       </c>
@@ -4257,7 +4252,7 @@
       <c r="D129" s="8"/>
     </row>
     <row r="130" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="33" t="s">
+      <c r="A130" s="36" t="s">
         <v>42</v>
       </c>
       <c r="B130" s="13" t="s">
@@ -4271,7 +4266,7 @@
       </c>
     </row>
     <row r="131" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="34"/>
+      <c r="A131" s="37"/>
       <c r="B131" s="13" t="s">
         <v>155</v>
       </c>
@@ -4283,7 +4278,7 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A132" s="35"/>
+      <c r="A132" s="38"/>
       <c r="B132" s="13" t="s">
         <v>156</v>
       </c>
@@ -4301,7 +4296,7 @@
       <c r="D133" s="2"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="33" t="s">
+      <c r="A134" s="36" t="s">
         <v>41</v>
       </c>
       <c r="B134" s="13" t="s">
@@ -4311,7 +4306,7 @@
       <c r="D134" s="8"/>
     </row>
     <row r="135" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="34"/>
+      <c r="A135" s="37"/>
       <c r="B135" s="13" t="s">
         <v>125</v>
       </c>
@@ -4319,7 +4314,7 @@
       <c r="D135" s="8"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="35"/>
+      <c r="A136" s="38"/>
       <c r="B136" s="13" t="s">
         <v>167</v>
       </c>
@@ -4327,7 +4322,7 @@
       <c r="D136" s="8"/>
     </row>
     <row r="137" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="33" t="s">
+      <c r="A137" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B137" s="13" t="s">
@@ -4337,7 +4332,7 @@
       <c r="D137" s="8"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="34"/>
+      <c r="A138" s="37"/>
       <c r="B138" s="13" t="s">
         <v>169</v>
       </c>
@@ -4345,7 +4340,7 @@
       <c r="D138" s="8"/>
     </row>
     <row r="139" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="35"/>
+      <c r="A139" s="38"/>
       <c r="B139" s="13" t="s">
         <v>170</v>
       </c>
@@ -4353,7 +4348,7 @@
       <c r="D139" s="8"/>
     </row>
     <row r="140" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="33" t="s">
+      <c r="A140" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B140" s="13" t="s">
@@ -4363,7 +4358,7 @@
       <c r="D140" s="8"/>
     </row>
     <row r="141" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="34"/>
+      <c r="A141" s="37"/>
       <c r="B141" s="13" t="s">
         <v>125</v>
       </c>
@@ -4371,7 +4366,7 @@
       <c r="D141" s="8"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="35"/>
+      <c r="A142" s="38"/>
       <c r="B142" s="13" t="s">
         <v>122</v>
       </c>
@@ -4379,7 +4374,7 @@
       <c r="D142" s="8"/>
     </row>
     <row r="143" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" s="33" t="s">
+      <c r="A143" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B143" s="13" t="s">
@@ -4389,7 +4384,7 @@
       <c r="D143" s="8"/>
     </row>
     <row r="144" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="34"/>
+      <c r="A144" s="37"/>
       <c r="B144" s="13" t="s">
         <v>125</v>
       </c>
@@ -4397,7 +4392,7 @@
       <c r="D144" s="8"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="35"/>
+      <c r="A145" s="38"/>
       <c r="B145" s="13" t="s">
         <v>122</v>
       </c>
@@ -4405,7 +4400,7 @@
       <c r="D145" s="8"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="33" t="s">
+      <c r="A146" s="36" t="s">
         <v>6</v>
       </c>
       <c r="B146" s="13" t="s">
@@ -4415,7 +4410,7 @@
       <c r="D146" s="8"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="34"/>
+      <c r="A147" s="37"/>
       <c r="B147" s="13" t="s">
         <v>164</v>
       </c>
@@ -4423,7 +4418,7 @@
       <c r="D147" s="8"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="35"/>
+      <c r="A148" s="38"/>
       <c r="B148" s="13" t="s">
         <v>165</v>
       </c>
@@ -4431,7 +4426,7 @@
       <c r="D148" s="8"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="33" t="s">
+      <c r="A149" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B149" s="13" t="s">
@@ -4441,7 +4436,7 @@
       <c r="D149" s="8"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="34"/>
+      <c r="A150" s="37"/>
       <c r="B150" s="13" t="s">
         <v>164</v>
       </c>
@@ -4449,7 +4444,7 @@
       <c r="D150" s="8"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="35"/>
+      <c r="A151" s="38"/>
       <c r="B151" s="13" t="s">
         <v>165</v>
       </c>
@@ -4457,7 +4452,7 @@
       <c r="D151" s="8"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="33" t="s">
+      <c r="A152" s="36" t="s">
         <v>8</v>
       </c>
       <c r="B152" s="13" t="s">
@@ -4467,7 +4462,7 @@
       <c r="D152" s="8"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="34"/>
+      <c r="A153" s="37"/>
       <c r="B153" s="13" t="s">
         <v>164</v>
       </c>
@@ -4475,7 +4470,7 @@
       <c r="D153" s="8"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="35"/>
+      <c r="A154" s="38"/>
       <c r="B154" s="13" t="s">
         <v>165</v>
       </c>
@@ -4483,7 +4478,7 @@
       <c r="D154" s="8"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="33" t="s">
+      <c r="A155" s="36" t="s">
         <v>9</v>
       </c>
       <c r="B155" s="13" t="s">
@@ -4493,7 +4488,7 @@
       <c r="D155" s="8"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="34"/>
+      <c r="A156" s="37"/>
       <c r="B156" s="13" t="s">
         <v>164</v>
       </c>
@@ -4501,7 +4496,7 @@
       <c r="D156" s="8"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="35"/>
+      <c r="A157" s="38"/>
       <c r="B157" s="13" t="s">
         <v>165</v>
       </c>
@@ -4510,6 +4505,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A152:A154"/>
+    <mergeCell ref="A155:A157"/>
+    <mergeCell ref="A137:A139"/>
+    <mergeCell ref="A140:A142"/>
+    <mergeCell ref="A143:A145"/>
+    <mergeCell ref="A146:A148"/>
+    <mergeCell ref="A149:A151"/>
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="A130:A132"/>
+    <mergeCell ref="A134:A136"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A11:A14"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A60:A62"/>
@@ -4517,13 +4544,6 @@
     <mergeCell ref="A79:A81"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A11:A14"/>
     <mergeCell ref="A54:A56"/>
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="A48:A50"/>
@@ -4533,31 +4553,6 @@
     <mergeCell ref="A72:A74"/>
     <mergeCell ref="A76:A78"/>
     <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="A115:A117"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="A127:A129"/>
-    <mergeCell ref="A130:A132"/>
-    <mergeCell ref="A134:A136"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="A137:A139"/>
-    <mergeCell ref="A140:A142"/>
-    <mergeCell ref="A143:A145"/>
-    <mergeCell ref="A146:A148"/>
-    <mergeCell ref="A149:A151"/>
-    <mergeCell ref="A152:A154"/>
-    <mergeCell ref="A155:A157"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
